--- a/manually_collected.xlsx
+++ b/manually_collected.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelmandiberg/Documents/GitHub/publish_or_perish/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A34326-C2C5-BA41-BABB-6DF378F98DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD40D74-9860-BF49-8B3D-2E34B50B60F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10940" yWindow="11300" windowWidth="26840" windowHeight="15940" xr2:uid="{6A4B4E24-7967-9448-8CEE-64FC29127E90}"/>
+    <workbookView xWindow="3200" yWindow="760" windowWidth="31360" windowHeight="21580" xr2:uid="{6A4B4E24-7967-9448-8CEE-64FC29127E90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="336">
   <si>
     <t>Filename</t>
   </si>
@@ -86,9 +86,6 @@
     <t>ReviewType</t>
   </si>
   <si>
-    <t>Term</t>
-  </si>
-  <si>
     <t>Copycat' @ SF State - Squarecylinder.com – Art Reviews _ Art Museums _ Art Gallery Listings Northern California.pdf</t>
   </si>
   <si>
@@ -305,21 +302,9 @@
     <t>Burlington Contemporary</t>
   </si>
   <si>
-    <t>Copias de copias_ la apropiación de la apropiación en Arte Contemporáneo _ CUNY OneSearch @ CUNY Graduate Center.pdf</t>
-  </si>
-  <si>
     <t>Copias de copias: la apropiación de la apropiación en Arte Contemporáneo</t>
   </si>
   <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>Observar : revista electrònica de l'Observatori sobre la Didàctica de les Arts</t>
-  </si>
-  <si>
-    <t>After Walker Evans, AfterSherrieLevine.com</t>
-  </si>
-  <si>
     <t>Cornell Celebrates International Women's Day with Wikipedia Edit-a-Thon - Document - Gale OneFile_ News.pdf</t>
   </si>
   <si>
@@ -851,21 +836,6 @@
     <t>AfterSherrieLevine.com</t>
   </si>
   <si>
-    <t>Try Purging the Boom Years and Start the New Age Clean - Document - Gale OneFile_ News.pdf</t>
-  </si>
-  <si>
-    <t>Simon Doonan</t>
-  </si>
-  <si>
-    <t>Try Purging the Boom Years and Start the New Age Clean</t>
-  </si>
-  <si>
-    <t>The New York Observer</t>
-  </si>
-  <si>
-    <t>link.gale.com/apps/doc/A81472739/STND?u=cuny_gradctr&amp;sid=bookmark-STND&amp;xid=040d8a3f</t>
-  </si>
-  <si>
     <t>UNAM_MX_Construcción Colaborativa.pdf</t>
   </si>
   <si>
@@ -1025,24 +995,9 @@
     <t>cuny-gc.primo.exlibrisgroup</t>
   </si>
   <si>
-    <t>project_muse_761590.pdf</t>
-  </si>
-  <si>
-    <t>Technology and Culture</t>
-  </si>
-  <si>
     <t>Duke University Press</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S162</t>
-  </si>
-  <si>
-    <t>S179</t>
-  </si>
-  <si>
     <t>review of social life of artistic property.pdf</t>
   </si>
   <si>
@@ -1062,6 +1017,33 @@
   </si>
   <si>
     <t>thepaper</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>USE_THIS</t>
+  </si>
+  <si>
+    <t>Negative Exposures: Knowing What Not to Know in Contemporary China</t>
+  </si>
+  <si>
+    <t>discussion</t>
+  </si>
+  <si>
+    <t>Tiananmen</t>
+  </si>
+  <si>
+    <t>Digitized Newspapers and the Hidden Transformation of History</t>
+  </si>
+  <si>
+    <t>HJS Tworek</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Burned Books</t>
   </si>
 </sst>
 </file>
@@ -1451,15 +1433,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C525757-24E4-5C4B-97D1-91B1B41D7186}">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q93"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.5" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col min="8" max="15" width="3.33203125" customWidth="1"/>
+    <col min="16" max="16" width="17.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1505,25 +1494,28 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1534,23 +1526,26 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1561,18 +1556,21 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="1">
         <v>2022</v>
@@ -1581,10 +1579,10 @@
         <v>45333</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1594,31 +1592,34 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1" t="s">
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" s="1">
         <v>16</v>
@@ -1633,29 +1634,32 @@
         <v>167</v>
       </c>
       <c r="O5" s="1"/>
-      <c r="P5" s="1" t="s">
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D6" s="1">
         <v>2016</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1668,27 +1672,30 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D7" s="1">
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1699,21 +1706,24 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1" t="s">
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1724,21 +1734,24 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1749,25 +1762,28 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1">
         <v>2021</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1778,29 +1794,32 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1" t="s">
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D11" s="1">
         <v>2015</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1813,33 +1832,36 @@
         <v>87</v>
       </c>
       <c r="M11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="O11" s="1">
         <v>2</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>20</v>
+      <c r="P11" t="b">
+        <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1850,27 +1872,30 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1" t="s">
-        <v>56</v>
+      <c r="P12" t="b">
+        <v>1</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1881,23 +1906,26 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1" t="s">
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1908,30 +1936,33 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D15" s="1">
         <v>2022</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1">
@@ -1947,18 +1978,21 @@
         <v>276</v>
       </c>
       <c r="O15" s="1"/>
-      <c r="P15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1">
         <v>2011</v>
@@ -1967,11 +2001,11 @@
         <v>45394</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1980,21 +2014,24 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -2005,19 +2042,22 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
       <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -2028,58 +2068,50 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1">
-        <v>11</v>
-      </c>
-      <c r="L19" s="1">
-        <v>2</v>
-      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2090,91 +2122,115 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
       <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>95</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2015</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1">
-        <v>1</v>
-      </c>
+      <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="1" t="s">
-        <v>102</v>
+      <c r="P22" t="b">
+        <v>1</v>
       </c>
       <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2017</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>105</v>
       </c>
@@ -2182,45 +2238,38 @@
       <c r="C24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="1">
-        <v>2017</v>
-      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
         <v>107</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2231,87 +2280,102 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1">
+        <v>2020</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="M26" s="1">
+        <v>203</v>
+      </c>
+      <c r="N26" s="1">
+        <v>228</v>
+      </c>
       <c r="O26" s="1"/>
-      <c r="P26" s="1" t="s">
-        <v>116</v>
+      <c r="P26" t="b">
+        <v>1</v>
       </c>
       <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D27" s="1">
         <v>2020</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>120</v>
+        <v>329</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>121</v>
+        <v>319</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="1">
-        <v>203</v>
-      </c>
-      <c r="N27" s="1">
-        <v>228</v>
-      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2322,77 +2386,92 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="1" t="s">
-        <v>20</v>
+      <c r="P28" t="b">
+        <v>1</v>
       </c>
       <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45363</v>
+      </c>
       <c r="F29" s="1" t="s">
         <v>95</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E30" s="1">
-        <v>45363</v>
-      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1">
-        <v>1</v>
-      </c>
+      <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="1" t="s">
-        <v>102</v>
+      <c r="P30" t="b">
+        <v>1</v>
       </c>
       <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
         <v>129</v>
       </c>
@@ -2401,59 +2480,55 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="L31" s="1">
+        <v>104</v>
+      </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2015</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="1">
-        <v>104</v>
-      </c>
+      <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="1" t="s">
-        <v>20</v>
+      <c r="P32" t="b">
+        <v>1</v>
       </c>
       <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2463,18 +2538,27 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2484,23 +2568,22 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2511,77 +2594,90 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
       <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="F36" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
       <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
       <c r="Q36" s="1"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="1">
-        <v>1</v>
-      </c>
+      <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2592,23 +2688,24 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
       <c r="Q38" s="1"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2619,89 +2716,98 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
       <c r="Q39" s="1"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2002</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45608</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="M40" s="1">
+        <v>10</v>
+      </c>
+      <c r="N40" s="1">
+        <v>10</v>
+      </c>
       <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D41" s="1">
-        <v>2002</v>
-      </c>
-      <c r="E41" s="1">
-        <v>45608</v>
+        <v>2022</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="2" t="s">
-        <v>156</v>
-      </c>
+      <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="1">
-        <v>10</v>
-      </c>
-      <c r="N41" s="1">
-        <v>10</v>
-      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
       <c r="O41" s="1"/>
-      <c r="P41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2712,21 +2818,22 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
-      <c r="P42" s="1" t="s">
-        <v>20</v>
+      <c r="P42" t="b">
+        <v>1</v>
       </c>
       <c r="Q42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2737,19 +2844,22 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
       <c r="Q43" s="1"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2760,19 +2870,22 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
       <c r="Q44" s="1"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -2783,19 +2896,22 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
       <c r="Q45" s="1"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2806,22 +2922,33 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
       <c r="Q46" s="1"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1" t="s">
-        <v>95</v>
+      <c r="C47" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45347</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="H47" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2829,97 +2956,98 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="C48" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D48" s="1">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E48" s="1">
-        <v>45347</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>172</v>
+        <v>45530</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="J48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K48" s="1">
+        <v>26</v>
+      </c>
+      <c r="L48" s="1">
+        <v>45355</v>
+      </c>
+      <c r="M48" s="1">
+        <v>279</v>
+      </c>
+      <c r="N48" s="1">
+        <v>286</v>
+      </c>
       <c r="O48" s="1"/>
-      <c r="P48" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q48" s="1"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B49" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="1">
-        <v>2015</v>
-      </c>
-      <c r="E49" s="1">
-        <v>45530</v>
-      </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K49" s="1">
-        <v>26</v>
-      </c>
-      <c r="L49" s="1">
-        <v>45355</v>
-      </c>
-      <c r="M49" s="1">
-        <v>279</v>
-      </c>
-      <c r="N49" s="1">
-        <v>286</v>
-      </c>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2930,33 +3058,53 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
       <c r="Q50" s="1"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2019</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
+      <c r="N51" s="1">
+        <v>5</v>
+      </c>
       <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>185</v>
       </c>
@@ -2969,433 +3117,465 @@
       <c r="D52" s="1">
         <v>2019</v>
       </c>
-      <c r="E52" s="1"/>
+      <c r="E52" s="1">
+        <v>45392</v>
+      </c>
       <c r="F52" s="1" t="s">
         <v>188</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H52" s="1"/>
+      <c r="H52" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="I52" s="1" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="1">
-        <v>5</v>
-      </c>
+      <c r="N52" s="1"/>
       <c r="O52" s="1"/>
-      <c r="P52" s="1" t="s">
-        <v>20</v>
+      <c r="P52" t="b">
+        <v>1</v>
       </c>
       <c r="Q52" s="1"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>192</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C53" s="1"/>
       <c r="D53" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E53" s="1">
-        <v>45392</v>
+        <v>2023</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H53" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C54" s="1"/>
       <c r="D54" s="1">
-        <v>2023</v>
-      </c>
-      <c r="E54" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45461</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="H54" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
       <c r="Q54" s="1"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D55" s="1">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E55" s="1">
-        <v>45461</v>
+        <v>45562</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G55" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
       <c r="Q55" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="D56" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D56" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E56" s="1">
-        <v>45562</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="I56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
-      <c r="P56" s="1" t="s">
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q56" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57" s="1">
-        <v>2015</v>
-      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
       <c r="E57" s="1">
-        <v>2</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>2014</v>
+      </c>
+      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+        <v>210</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F58" s="1"/>
+        <v>45556</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="I58" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="D59" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1">
-        <v>45556</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="I59" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="J59" s="1">
+        <v>18</v>
+      </c>
+      <c r="K59" s="1">
+        <v>4</v>
+      </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="D60" s="1">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="J60" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K60" s="1">
-        <v>4</v>
-      </c>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="L60" s="1">
+        <v>1047</v>
+      </c>
+      <c r="M60" s="1">
+        <v>1056</v>
+      </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-      <c r="P60" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D61" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J61" s="1">
-        <v>5</v>
-      </c>
-      <c r="K61" s="1">
-        <v>12</v>
-      </c>
-      <c r="L61" s="1">
-        <v>1047</v>
-      </c>
-      <c r="M61" s="1">
-        <v>1056</v>
-      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
       <c r="Q61" s="1"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="1"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45466</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="H62" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
       <c r="Q62" s="1"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B63" s="1" t="s">
         <v>233</v>
       </c>
+      <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D63" s="1">
-        <v>2015</v>
-      </c>
-      <c r="E63" s="1">
-        <v>45466</v>
-      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
       <c r="Q63" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="R63" s="1"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+        <v>237</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E64" s="1">
+        <v>45357</v>
+      </c>
       <c r="F64" s="1" t="s">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -3404,31 +3584,30 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q64" s="1"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R64" s="1"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D65" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E65" s="1">
-        <v>45357</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>27</v>
+        <v>241</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -3437,82 +3616,107 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
-      <c r="P65" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q65" s="1"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R65" s="1"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E66" s="1">
+        <v>45463</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1" t="s">
+      <c r="H66" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
+      <c r="M66" s="1">
+        <v>15</v>
+      </c>
+      <c r="N66" s="1">
+        <v>15</v>
+      </c>
       <c r="O66" s="1"/>
-      <c r="P66" s="1" t="s">
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R66" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q66" s="1"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="C67" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D67" s="1">
-        <v>2015</v>
-      </c>
-      <c r="E67" s="1">
-        <v>45463</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>249</v>
+        <v>102</v>
       </c>
       <c r="G67" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="I67" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
-        <v>15</v>
+        <v>313</v>
       </c>
       <c r="N67" s="1">
-        <v>15</v>
+        <v>321</v>
       </c>
       <c r="O67" s="1"/>
-      <c r="P67" s="1" t="s">
-        <v>116</v>
+      <c r="P67" t="b">
+        <v>1</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>252</v>
       </c>
@@ -3523,181 +3727,173 @@
         <v>254</v>
       </c>
       <c r="D68" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E68" s="1"/>
+        <v>2016</v>
+      </c>
+      <c r="E68" s="1">
+        <v>45492</v>
+      </c>
       <c r="F68" s="1" t="s">
-        <v>107</v>
+        <v>255</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>107</v>
+        <v>223</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="1">
-        <v>313</v>
-      </c>
-      <c r="N68" s="1">
-        <v>321</v>
-      </c>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
       <c r="O68" s="1"/>
-      <c r="P68" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D69" s="1">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E69" s="1">
-        <v>45492</v>
+        <v>45630</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="I69" s="1"/>
       <c r="J69" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
+        <v>264</v>
+      </c>
+      <c r="K69" s="1">
+        <v>19</v>
+      </c>
+      <c r="L69" s="1">
+        <v>2</v>
+      </c>
+      <c r="M69" s="1">
+        <v>125</v>
+      </c>
+      <c r="N69" s="1">
+        <v>136</v>
+      </c>
       <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D70" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E70" s="1">
-        <v>45630</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G70" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1" t="s">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K70" s="1">
-        <v>19</v>
-      </c>
-      <c r="L70" s="1">
-        <v>2</v>
-      </c>
-      <c r="M70" s="1">
-        <v>125</v>
-      </c>
-      <c r="N70" s="1">
-        <v>136</v>
-      </c>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q70" s="2" t="s">
+      <c r="D71" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E71" s="1">
+        <v>45461</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D71" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E71" s="1">
-        <v>45377</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>275</v>
-      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-      <c r="M71" s="1">
-        <v>29</v>
-      </c>
-      <c r="N71" s="1">
-        <v>29</v>
-      </c>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
       <c r="O71" s="1"/>
-      <c r="P71" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q71" s="1"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E72" s="1">
+        <v>45355</v>
+      </c>
       <c r="F72" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G72" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -3706,251 +3902,262 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E73" s="1">
+        <v>45568</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D73" s="1">
-        <v>2015</v>
-      </c>
-      <c r="E73" s="1">
-        <v>45461</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
+      <c r="K73" s="1">
+        <v>11</v>
+      </c>
+      <c r="L73" s="1">
+        <v>2</v>
+      </c>
+      <c r="M73" s="1">
+        <v>203</v>
+      </c>
+      <c r="N73" s="1">
+        <v>217</v>
+      </c>
       <c r="O73" s="1"/>
-      <c r="P73" s="1" t="s">
-        <v>72</v>
+      <c r="P73" t="b">
+        <v>1</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="D74" s="1">
         <v>2015</v>
       </c>
       <c r="E74" s="1">
-        <v>45355</v>
+        <v>45359</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H74" s="1"/>
+        <v>274</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
+      <c r="M74" s="1">
+        <v>1</v>
+      </c>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
-      <c r="P74" s="1" t="s">
-        <v>46</v>
+      <c r="P74" t="b">
+        <v>1</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="D75" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D75" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E75" s="1">
-        <v>45568</v>
-      </c>
-      <c r="F75" s="1" t="s">
+      <c r="H75" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G75" s="1"/>
-      <c r="H75" s="2" t="s">
+      <c r="I75" s="1"/>
+      <c r="J75" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
       <c r="K75" s="1">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="L75" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M75" s="1">
-        <v>203</v>
+        <v>947</v>
       </c>
       <c r="N75" s="1">
-        <v>217</v>
+        <v>949</v>
       </c>
       <c r="O75" s="1"/>
-      <c r="P75" s="1" t="s">
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R75" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q75" s="1" t="s">
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D76" s="1">
-        <v>2015</v>
-      </c>
-      <c r="E76" s="1">
-        <v>45359</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="G76" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H76" s="1" t="s">
         <v>292</v>
       </c>
+      <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="M76" s="1">
-        <v>1</v>
-      </c>
+      <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
-      <c r="P76" s="1" t="s">
-        <v>46</v>
+      <c r="P76" t="b">
+        <v>1</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+      <c r="R76" s="1"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B77" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D77" s="1">
-        <v>2020</v>
-      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="K77" s="1">
-        <v>45</v>
-      </c>
-      <c r="L77" s="1">
-        <v>5</v>
-      </c>
-      <c r="M77" s="1">
-        <v>947</v>
-      </c>
-      <c r="N77" s="1">
-        <v>949</v>
-      </c>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q77" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="D78" s="1">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="I78" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
-      <c r="P78" s="1" t="s">
-        <v>303</v>
+      <c r="P78" t="b">
+        <v>1</v>
       </c>
       <c r="Q78" s="1"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R78" s="1"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>305</v>
+        <v>241</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -3961,52 +4168,56 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D80" s="1">
-        <v>2022</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>310</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -4017,50 +4228,56 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
-      <c r="P81" s="1" t="s">
-        <v>56</v>
+      <c r="P81" t="b">
+        <v>1</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="R81" s="1"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+      <c r="I82" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
-      <c r="P82" s="1" t="s">
-        <v>20</v>
+      <c r="P82" t="b">
+        <v>1</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -4071,50 +4288,48 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
-      <c r="P83" s="1" t="s">
-        <v>116</v>
+      <c r="P83" t="b">
+        <v>1</v>
       </c>
       <c r="Q83" s="1"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="1"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
-      <c r="P84" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q84" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -4125,19 +4340,26 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
       <c r="Q85" s="1"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="1"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+        <v>315</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -4148,227 +4370,160 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
       <c r="Q86" s="1"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="1"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>324</v>
+        <v>39</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
+      <c r="J87" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
       <c r="Q87" s="1"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="1"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
+      </c>
+      <c r="B88" t="s">
+        <v>333</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D88" s="1"/>
+        <v>332</v>
+      </c>
+      <c r="D88" s="1">
+        <v>2024</v>
+      </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G88" s="1"/>
+        <v>322</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
+      <c r="J88" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K88" s="1">
+        <v>129</v>
+      </c>
+      <c r="L88" s="1">
+        <v>1</v>
+      </c>
+      <c r="M88" s="1">
+        <v>143</v>
+      </c>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="1">
-        <v>2020</v>
-      </c>
+      <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>331</v>
-      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="K89" s="1">
-        <v>61</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>334</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
       <c r="O89" s="1"/>
-      <c r="P89" s="1" t="s">
-        <v>72</v>
+      <c r="P89" t="b">
+        <v>1</v>
       </c>
       <c r="Q89" s="1"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="1"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>40</v>
+        <v>326</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
       <c r="Q90" s="1"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="K91" s="1">
-        <v>129</v>
-      </c>
-      <c r="L91" s="1">
-        <v>1</v>
-      </c>
-      <c r="M91" s="1">
-        <v>143</v>
-      </c>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
+      <c r="R90" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="http://squarecylinder.com/" xr:uid="{240F9753-4B03-2447-BF3C-02C08270A826}"/>
     <hyperlink ref="F9" r:id="rId2" display="http://www.artistbooks.de/" xr:uid="{4E988012-9029-5944-8D20-F2932D14A121}"/>
     <hyperlink ref="H16" r:id="rId3" xr:uid="{A3AA413A-0D69-B247-95A7-7FA5A2BE63B8}"/>
-    <hyperlink ref="H22" r:id="rId4" display="http://link.gale.com/apps/doc/A433635858/STND?u=cuny_gradctr&amp;sid=bookmark-STND&amp;xid=bcca7c0a" xr:uid="{076EEED9-D898-7B4E-993F-4ECC88F4CFBC}"/>
-    <hyperlink ref="H30" r:id="rId5" display="http://link.gale.com/apps/doc/A530807046/STND?u=cuny_gradctr&amp;sid=bookmark-STND&amp;xid=f701455f" xr:uid="{D51627A4-3024-964E-94D5-08A9D41801D3}"/>
-    <hyperlink ref="H41" r:id="rId6" display="http://link.gale.com/apps/doc/A94888479/STND?u=cuny_gradctr&amp;sid=bookmark-STND&amp;xid=5a3b3bcd" xr:uid="{4A9C5AB6-6786-0A4F-8F63-0B7A4EC25F37}"/>
-    <hyperlink ref="F48" r:id="rId7" display="http://foreignaffairs.co.nz/" xr:uid="{DEEB54D6-9440-2B4D-B72D-A85B44B17D3F}"/>
-    <hyperlink ref="H48" r:id="rId8" display="http://link.gale.com/apps/doc/A575635543/STND?u=cuny_gradctr&amp;sid=bookmark-STND&amp;xid=79efbfd4" xr:uid="{764C090D-AF4C-0848-AE96-5AE72F155E9C}"/>
-    <hyperlink ref="H49" r:id="rId9" xr:uid="{421C2B0A-82FF-F54F-89C4-8EA819B4D513}"/>
-    <hyperlink ref="H53" r:id="rId10" display="http://link.gale.com/apps/doc/A581826885/STND?u=cuny_gradctr&amp;sid=bookmark-STND&amp;xid=d8ad235a" xr:uid="{06B7C89F-371B-F043-B8CF-B6B3845B73BA}"/>
-    <hyperlink ref="H55" r:id="rId11" display="http://link.gale.com/apps/doc/A418365733/STND?u=cuny_gradctr&amp;sid=bookmark-STND&amp;xid=585d438d" xr:uid="{D7688471-4D41-CE45-8D7A-205044F74588}"/>
-    <hyperlink ref="H63" r:id="rId12" display="http://link.gale.com/apps/doc/A418985008/STND?u=cuny_gradctr&amp;sid=bookmark-STND&amp;xid=7fdcabe8" xr:uid="{4686390E-FEAD-D242-A40A-8C83A11CA93D}"/>
-    <hyperlink ref="H67" r:id="rId13" display="http://link.gale.com/apps/doc/A418542710/STND?u=cuny_gradctr&amp;sid=bookmark-STND&amp;xid=2e9862af" xr:uid="{5F92C591-02B2-B043-954B-3BA46030496C}"/>
-    <hyperlink ref="H68" r:id="rId14" xr:uid="{80120BFF-75D6-EC45-A870-301595D24A2A}"/>
-    <hyperlink ref="H69" r:id="rId15" xr:uid="{33B376C2-D7EA-744A-A2A5-6961B7683B7C}"/>
-    <hyperlink ref="H70" r:id="rId16" xr:uid="{0B29BC1B-8D27-0941-BFD2-CD9A2E3E54A4}"/>
-    <hyperlink ref="Q70" r:id="rId17" display="http://aftersherrielevine.com/" xr:uid="{A1DDDCFD-F55A-F042-AD57-8EEAC83CC6B2}"/>
-    <hyperlink ref="H71" r:id="rId18" display="http://link.gale.com/apps/doc/A81472739/STND?u=cuny_gradctr&amp;sid=bookmark-STND&amp;xid=040d8a3f" xr:uid="{8672E780-92BB-5C4B-992A-C54185B407C6}"/>
-    <hyperlink ref="H75" r:id="rId19" xr:uid="{2F7A1E88-8F53-0141-85BA-4BA151B5364D}"/>
-    <hyperlink ref="H77" r:id="rId20" xr:uid="{2094BB0E-02A0-C641-9E88-2520C5905DDD}"/>
-    <hyperlink ref="Q84" r:id="rId21" display="http://aftersherrielevine.com/" xr:uid="{9A029373-463B-044B-B005-D25001956443}"/>
+    <hyperlink ref="H21" r:id="rId4" display="http://link.gale.com/apps/doc/A433635858/STND?u=cuny_gradctr&amp;sid=bookmark-STND&amp;xid=bcca7c0a" xr:uid="{076EEED9-D898-7B4E-993F-4ECC88F4CFBC}"/>
+    <hyperlink ref="H29" r:id="rId5" display="http://link.gale.com/apps/doc/A530807046/STND?u=cuny_gradctr&amp;sid=bookmark-STND&amp;xid=f701455f" xr:uid="{D51627A4-3024-964E-94D5-08A9D41801D3}"/>
+    <hyperlink ref="H40" r:id="rId6" display="http://link.gale.com/apps/doc/A94888479/STND?u=cuny_gradctr&amp;sid=bookmark-STND&amp;xid=5a3b3bcd" xr:uid="{4A9C5AB6-6786-0A4F-8F63-0B7A4EC25F37}"/>
+    <hyperlink ref="F47" r:id="rId7" display="http://foreignaffairs.co.nz/" xr:uid="{DEEB54D6-9440-2B4D-B72D-A85B44B17D3F}"/>
+    <hyperlink ref="H47" r:id="rId8" display="http://link.gale.com/apps/doc/A575635543/STND?u=cuny_gradctr&amp;sid=bookmark-STND&amp;xid=79efbfd4" xr:uid="{764C090D-AF4C-0848-AE96-5AE72F155E9C}"/>
+    <hyperlink ref="H48" r:id="rId9" xr:uid="{421C2B0A-82FF-F54F-89C4-8EA819B4D513}"/>
+    <hyperlink ref="H52" r:id="rId10" display="http://link.gale.com/apps/doc/A581826885/STND?u=cuny_gradctr&amp;sid=bookmark-STND&amp;xid=d8ad235a" xr:uid="{06B7C89F-371B-F043-B8CF-B6B3845B73BA}"/>
+    <hyperlink ref="H54" r:id="rId11" display="http://link.gale.com/apps/doc/A418365733/STND?u=cuny_gradctr&amp;sid=bookmark-STND&amp;xid=585d438d" xr:uid="{D7688471-4D41-CE45-8D7A-205044F74588}"/>
+    <hyperlink ref="H62" r:id="rId12" display="http://link.gale.com/apps/doc/A418985008/STND?u=cuny_gradctr&amp;sid=bookmark-STND&amp;xid=7fdcabe8" xr:uid="{4686390E-FEAD-D242-A40A-8C83A11CA93D}"/>
+    <hyperlink ref="H66" r:id="rId13" display="http://link.gale.com/apps/doc/A418542710/STND?u=cuny_gradctr&amp;sid=bookmark-STND&amp;xid=2e9862af" xr:uid="{5F92C591-02B2-B043-954B-3BA46030496C}"/>
+    <hyperlink ref="H67" r:id="rId14" xr:uid="{80120BFF-75D6-EC45-A870-301595D24A2A}"/>
+    <hyperlink ref="H68" r:id="rId15" xr:uid="{33B376C2-D7EA-744A-A2A5-6961B7683B7C}"/>
+    <hyperlink ref="H69" r:id="rId16" xr:uid="{0B29BC1B-8D27-0941-BFD2-CD9A2E3E54A4}"/>
+    <hyperlink ref="R69" r:id="rId17" display="http://aftersherrielevine.com/" xr:uid="{A1DDDCFD-F55A-F042-AD57-8EEAC83CC6B2}"/>
+    <hyperlink ref="H73" r:id="rId18" xr:uid="{2F7A1E88-8F53-0141-85BA-4BA151B5364D}"/>
+    <hyperlink ref="H75" r:id="rId19" xr:uid="{2094BB0E-02A0-C641-9E88-2520C5905DDD}"/>
+    <hyperlink ref="R82" r:id="rId20" display="http://aftersherrielevine.com/" xr:uid="{9A029373-463B-044B-B005-D25001956443}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
